--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_2_21.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1034780.004550592</v>
+        <v>1059051.812957113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111177</v>
+        <v>713587.7684111182</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15478922.45806425</v>
+        <v>15478922.45806426</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -701,31 +701,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="Y2" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V2" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,10 +735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>116.6930783966232</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -750,16 +750,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>102.167696102973</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -795,13 +795,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -902,22 +902,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>230.8744955960827</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1026,19 +1026,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>85.31372784089217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,25 +1175,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1215,16 +1215,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>107.1542635519063</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>145.9272112248127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>133.186967585368</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>312.9379844122249</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>66.97401714472393</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>88.00880902957793</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,25 +1494,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>174.1736765502211</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1543,13 +1543,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3249685652703</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>106.0890042129125</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>141.6396260835082</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1661,19 +1661,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>66.9740171447237</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,25 +1683,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>104.2537081867558</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1731,25 +1731,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>188.5773769985161</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>21.38816470214935</v>
+        <v>31.41652775149777</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -1807,13 +1807,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1889,28 +1889,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.06257007945304</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>66.9740171447237</v>
       </c>
     </row>
     <row r="18">
@@ -1926,22 +1926,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>55.31938511320238</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1971,19 +1971,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>51.54912749009464</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>106.9147497326711</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2059,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>73.36175976093797</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>47.74806282379132</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>139.7016501728108</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,13 +2172,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>127.3343733834984</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>19.52262381451777</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,10 +2208,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>106.0890042129125</v>
+        <v>18.12022702288998</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2327,16 +2327,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>333.4403157157206</v>
+        <v>42.441287412706</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>101.9261744259183</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -2445,13 +2445,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>113.4883178883721</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>141.2209508291585</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>79.45096555843291</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>193.3662748617605</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="G27" t="n">
-        <v>100.8507258423888</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2755,19 +2755,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>96.06064116356384</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2795,10 +2795,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2807,10 +2807,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>278.8265697844214</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,22 +2837,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>160.9952537250861</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2919,19 +2919,19 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>114.1942888468241</v>
+        <v>127.5262986521574</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -2992,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3001,19 +3001,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>34.65343661111039</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,22 +3080,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>85.67417889435382</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>79.17328653851654</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,28 +3105,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>99.87716788449325</v>
       </c>
       <c r="V33" t="n">
-        <v>128.4562226808344</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>30.44996741998434</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3238,10 +3238,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>39.19479062707025</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3272,19 +3272,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>405.7415719969024</v>
+        <v>152.8744789644264</v>
       </c>
       <c r="G35" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>101.9261744259183</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,7 +3311,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3342,28 +3342,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>7.425224531302296</v>
+        <v>39.45551184317998</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>165.8272126914158</v>
@@ -3399,7 +3399,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>145.6674229028285</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>141.6396260835082</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>86.65804289016276</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>55.06488450908093</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>50.38717100304834</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -3627,28 +3627,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3676,13 +3676,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>103.3249685652704</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3718,13 +3718,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>73.36175976093783</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3752,13 +3752,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>86.65804289016231</v>
       </c>
       <c r="S41" t="n">
-        <v>148.5669103806347</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3825,16 +3825,16 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>27.59282119766725</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>96.1909412655929</v>
       </c>
       <c r="T42" t="n">
         <v>198.8939788055617</v>
@@ -3882,10 +3882,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3916,10 +3916,10 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>74.67247646141475</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3940,19 +3940,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.02970078434429</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>39.29526778092622</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,10 +3974,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3989,13 +3989,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>355.5523342121371</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,16 +4022,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>28.39592489530752</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4040,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4059,13 +4059,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>100.8169360859026</v>
+        <v>15.35403490654957</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
@@ -4101,28 +4101,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>145.6674229028286</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>122.6530896684844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4383,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>526.7184526376595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>352.2654233565326</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>213.5345979391481</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>726.4525409563269</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4434,25 +4434,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>526.7184526376595</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W3" t="n">
-        <v>526.7184526376595</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X3" t="n">
-        <v>526.7184526376595</v>
+        <v>137.1529394704382</v>
       </c>
       <c r="Y3" t="n">
-        <v>526.7184526376595</v>
+        <v>137.1529394704382</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
         <v>41.77557929797318</v>
@@ -4504,34 +4504,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E5" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F5" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G5" t="n">
-        <v>487.4018176583718</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4598,19 +4598,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>501.9060370580465</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
         <v>19.28114311021272</v>
@@ -4650,13 +4650,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O6" t="n">
         <v>781.4136778972854</v>
@@ -4674,22 +4674,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X6" t="n">
-        <v>877.8816728430684</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>670.1213740781145</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4823,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V8" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>648.4405950311615</v>
+        <v>587.9903182850353</v>
       </c>
       <c r="C9" t="n">
-        <v>473.9875657500345</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="D9" t="n">
-        <v>325.0531560887832</v>
+        <v>413.5372890039083</v>
       </c>
       <c r="E9" t="n">
-        <v>165.8157010833278</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4923,10 +4923,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y9" t="n">
-        <v>816.6559320512295</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="10">
@@ -4978,10 +4978,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
         <v>19.28114311021272</v>
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>32.45932575975219</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="C11" t="n">
-        <v>32.45932575975219</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D11" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F11" t="n">
         <v>32.45932575975219</v>
@@ -5039,16 +5039,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521485</v>
+        <v>70.13987180521494</v>
       </c>
       <c r="K11" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5063,28 +5063,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T11" t="n">
-        <v>1286.226725594945</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U11" t="n">
-        <v>1032.3898425272</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V11" t="n">
-        <v>701.3269551836289</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W11" t="n">
-        <v>348.5582999135148</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X11" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y11" t="n">
-        <v>32.45932575975219</v>
+        <v>1555.315765619201</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>32.45932575975219</v>
+        <v>989.6600854869342</v>
       </c>
       <c r="C12" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
@@ -5124,46 +5124,46 @@
         <v>208.2166101768439</v>
       </c>
       <c r="L12" t="n">
-        <v>208.2166101768439</v>
+        <v>505.948365158507</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313477</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082811</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P12" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U12" t="n">
-        <v>1026.358376588747</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V12" t="n">
-        <v>791.2062683570041</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="W12" t="n">
-        <v>536.9689116288025</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="X12" t="n">
-        <v>329.1174114232697</v>
+        <v>1365.635721271956</v>
       </c>
       <c r="Y12" t="n">
-        <v>121.3571126583158</v>
+        <v>1157.875422507002</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>256.8779464865154</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5221,28 +5221,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>361.2466016029501</v>
+        <v>254.0859912868768</v>
       </c>
       <c r="S13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="T13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="U13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5252,46 +5252,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>175.5296551370332</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="C14" t="n">
-        <v>175.5296551370332</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J14" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K14" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L14" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
@@ -5309,19 +5309,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="V14" t="n">
-        <v>1291.903400644039</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="W14" t="n">
-        <v>939.1347453739247</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="X14" t="n">
-        <v>565.6689871128449</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="Y14" t="n">
-        <v>175.5296551370332</v>
+        <v>1555.315765619201</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>502.0484094927817</v>
+        <v>594.4195962804527</v>
       </c>
       <c r="C15" t="n">
-        <v>502.0484094927817</v>
+        <v>419.9665669993257</v>
       </c>
       <c r="D15" t="n">
-        <v>502.0484094927817</v>
+        <v>271.0321573380744</v>
       </c>
       <c r="E15" t="n">
-        <v>502.0484094927817</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F15" t="n">
-        <v>355.5138515196667</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G15" t="n">
-        <v>217.1014782788369</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K15" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>758.3581127497703</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N15" t="n">
-        <v>948.4732699082808</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O15" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q15" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U15" t="n">
-        <v>944.9608164894784</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V15" t="n">
-        <v>709.8087082577356</v>
+        <v>1432.484088999209</v>
       </c>
       <c r="W15" t="n">
-        <v>709.8087082577356</v>
+        <v>1178.246732271007</v>
       </c>
       <c r="X15" t="n">
-        <v>709.8087082577356</v>
+        <v>970.3952320654746</v>
       </c>
       <c r="Y15" t="n">
-        <v>502.0484094927817</v>
+        <v>762.6349333005207</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="C16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="D16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="E16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="F16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="G16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="H16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="I16" t="n">
         <v>107.8860696601711</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5455,31 +5455,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="T16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="U16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="V16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="W16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="X16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
       <c r="Y16" t="n">
-        <v>129.490276430019</v>
+        <v>139.6199360758254</v>
       </c>
     </row>
     <row r="17">
@@ -5489,40 +5489,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>32.45932575975219</v>
+        <v>1555.315765619201</v>
       </c>
       <c r="C17" t="n">
-        <v>32.45932575975219</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D17" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E17" t="n">
-        <v>32.45932575975219</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="F17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I17" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J17" t="n">
-        <v>70.13987180521505</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528324</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
@@ -5537,28 +5537,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1566.337429321495</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1343.593509702263</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1089.756626634517</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>758.6937392909463</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>405.9250840208321</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X17" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y17" t="n">
-        <v>32.45932575975219</v>
+        <v>1555.315765619201</v>
       </c>
     </row>
     <row r="18">
@@ -5568,49 +5568,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>670.7339080607137</v>
+        <v>732.8319695212824</v>
       </c>
       <c r="C18" t="n">
-        <v>496.2808787795867</v>
+        <v>558.3789402401554</v>
       </c>
       <c r="D18" t="n">
-        <v>496.2808787795867</v>
+        <v>409.4445305789042</v>
       </c>
       <c r="E18" t="n">
-        <v>337.0434237741312</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="F18" t="n">
-        <v>281.1652569931187</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G18" t="n">
-        <v>142.7528837522889</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H18" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L18" t="n">
-        <v>505.948365158507</v>
+        <v>147.3709770270844</v>
       </c>
       <c r="M18" t="n">
-        <v>546.7891136313477</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N18" t="n">
-        <v>948.4732699082811</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O18" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P18" t="n">
-        <v>1513.730526286847</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q18" t="n">
         <v>1622.966287987609</v>
@@ -5619,25 +5619,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S18" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T18" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U18" t="n">
-        <v>1254.561044051268</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V18" t="n">
-        <v>1254.561044051268</v>
+        <v>1570.896462240039</v>
       </c>
       <c r="W18" t="n">
-        <v>1254.561044051268</v>
+        <v>1316.659105511837</v>
       </c>
       <c r="X18" t="n">
-        <v>1046.709543845736</v>
+        <v>1108.807605306304</v>
       </c>
       <c r="Y18" t="n">
-        <v>838.9492450807818</v>
+        <v>901.0473065413505</v>
       </c>
     </row>
     <row r="19">
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J19" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K19" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L19" t="n">
         <v>107.0302722280248</v>
@@ -5707,16 +5707,16 @@
         <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W19" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X19" t="n">
-        <v>361.2466016029501</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.45402245942</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1622.966287987609</v>
+        <v>531.8378023188368</v>
       </c>
       <c r="C20" t="n">
-        <v>1622.966287987609</v>
+        <v>531.8378023188368</v>
       </c>
       <c r="D20" t="n">
-        <v>1574.735921498931</v>
+        <v>173.5721037120863</v>
       </c>
       <c r="E20" t="n">
-        <v>1188.947668900687</v>
+        <v>173.5721037120863</v>
       </c>
       <c r="F20" t="n">
-        <v>779.107697186644</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G20" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H20" t="n">
         <v>32.45932575975218</v>
@@ -5786,16 +5786,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V20" t="n">
-        <v>1622.966287987609</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W20" t="n">
-        <v>1622.966287987609</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="X20" t="n">
-        <v>1622.966287987609</v>
+        <v>918.4376423829585</v>
       </c>
       <c r="Y20" t="n">
-        <v>1622.966287987609</v>
+        <v>918.4376423829585</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>790.2393568559519</v>
+        <v>670.8165632951459</v>
       </c>
       <c r="C21" t="n">
-        <v>615.7863275748249</v>
+        <v>496.3635340140189</v>
       </c>
       <c r="D21" t="n">
-        <v>466.8519179135736</v>
+        <v>496.3635340140189</v>
       </c>
       <c r="E21" t="n">
-        <v>307.6144629081181</v>
+        <v>337.1260790085634</v>
       </c>
       <c r="F21" t="n">
-        <v>161.0799049350031</v>
+        <v>190.5915210354484</v>
       </c>
       <c r="G21" t="n">
-        <v>32.45932575975218</v>
+        <v>52.17914779461861</v>
       </c>
       <c r="H21" t="n">
-        <v>32.45932575975218</v>
+        <v>52.17914779461861</v>
       </c>
       <c r="I21" t="n">
         <v>32.45932575975218</v>
@@ -5838,16 +5838,16 @@
         <v>505.948365158507</v>
       </c>
       <c r="M21" t="n">
-        <v>905.36650176277</v>
+        <v>546.7891136313474</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q21" t="n">
         <v>1622.966287987609</v>
@@ -5856,25 +5856,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T21" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U21" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V21" t="n">
-        <v>1374.066492846507</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W21" t="n">
-        <v>1374.066492846507</v>
+        <v>1086.428362265633</v>
       </c>
       <c r="X21" t="n">
-        <v>1166.214992640974</v>
+        <v>878.5768620600998</v>
       </c>
       <c r="Y21" t="n">
-        <v>958.45469387602</v>
+        <v>670.8165632951459</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="C22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="D22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="E22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="F22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="G22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="H22" t="n">
-        <v>1294.179012144411</v>
+        <v>181.4512025860964</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>1401.339622460484</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="U22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="V22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="W22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="X22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
       <c r="Y22" t="n">
-        <v>1294.179012144411</v>
+        <v>342.9433419838693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="C23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="D23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="E23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="F23" t="n">
-        <v>779.107697186644</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="G23" t="n">
-        <v>369.2677254726013</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="H23" t="n">
-        <v>32.45932575975218</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I23" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528326</v>
@@ -6002,37 +6002,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.966287987609</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1520.010556244257</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="V23" t="n">
-        <v>1188.947668900687</v>
+        <v>617.7539981240844</v>
       </c>
       <c r="W23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="X23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
       <c r="Y23" t="n">
-        <v>1188.947668900687</v>
+        <v>264.9853428539703</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>32.45932575975218</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L24" t="n">
-        <v>505.948365158507</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M24" t="n">
-        <v>905.36650176277</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N24" t="n">
-        <v>1299.952780813051</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
-        <v>1622.966287987609</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
         <v>1622.966287987609</v>
@@ -6093,25 +6093,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1508.3316234539</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1508.3316234539</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U24" t="n">
-        <v>1280.128955991378</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V24" t="n">
-        <v>1044.976847759636</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W24" t="n">
-        <v>790.739491031434</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X24" t="n">
-        <v>582.8879908259012</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y24" t="n">
-        <v>375.1276920609472</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>72.05002336285366</v>
+        <v>140.45402245942</v>
       </c>
       <c r="C25" t="n">
-        <v>72.05002336285366</v>
+        <v>140.45402245942</v>
       </c>
       <c r="D25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H25" t="n">
-        <v>72.05002336285366</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I25" t="n">
         <v>32.45932575975218</v>
@@ -6178,19 +6178,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V25" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W25" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X25" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y25" t="n">
-        <v>72.05002336285366</v>
+        <v>140.45402245942</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>787.2100952984081</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C26" t="n">
-        <v>418.2475783579964</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D26" t="n">
-        <v>418.2475783579964</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975219</v>
@@ -6227,49 +6227,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L26" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O26" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P26" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q26" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.96628798761</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.96628798761</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="T26" t="n">
-        <v>1427.646818430276</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="U26" t="n">
-        <v>1173.80993536253</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="V26" t="n">
-        <v>1173.80993536253</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="W26" t="n">
-        <v>1173.80993536253</v>
+        <v>1542.712787423536</v>
       </c>
       <c r="X26" t="n">
-        <v>1173.80993536253</v>
+        <v>1169.247029162456</v>
       </c>
       <c r="Y26" t="n">
-        <v>1173.80993536253</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>953.1171322889213</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C27" t="n">
-        <v>778.6641030077943</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D27" t="n">
-        <v>629.7296933465431</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E27" t="n">
-        <v>470.4922383410876</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F27" t="n">
-        <v>323.9576803679726</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975219</v>
@@ -6312,43 +6312,43 @@
         <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321105</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.96628798761</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U27" t="n">
-        <v>1622.96628798761</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V27" t="n">
-        <v>1622.96628798761</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W27" t="n">
-        <v>1368.728931259408</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X27" t="n">
-        <v>1160.877431053875</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y27" t="n">
-        <v>953.1171322889213</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L28" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M28" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N28" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O28" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P28" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q28" t="n">
-        <v>361.2466016029501</v>
+        <v>1558.289822548878</v>
       </c>
       <c r="R28" t="n">
-        <v>361.2466016029501</v>
+        <v>1391.209962814678</v>
       </c>
       <c r="S28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="T28" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="U28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y28" t="n">
-        <v>72.05002336285366</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>503.7583553506526</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="C29" t="n">
-        <v>503.7583553506526</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="D29" t="n">
-        <v>503.7583553506526</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>503.7583553506526</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
-        <v>503.7583553506526</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>503.7583553506526</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
         <v>32.45932575975219</v>
@@ -6485,28 +6485,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T29" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U29" t="n">
-        <v>834.8212426942232</v>
+        <v>1460.344819578432</v>
       </c>
       <c r="V29" t="n">
-        <v>503.7583553506526</v>
+        <v>1129.281932234861</v>
       </c>
       <c r="W29" t="n">
-        <v>503.7583553506526</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="X29" t="n">
-        <v>503.7583553506526</v>
+        <v>776.5132769647469</v>
       </c>
       <c r="Y29" t="n">
-        <v>503.7583553506526</v>
+        <v>776.5132769647469</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>910.3247089140674</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>735.8716796329404</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>586.9372699716891</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>427.6998149662337</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>281.1652569931187</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H30" t="n">
         <v>32.45932575975219</v>
@@ -6543,13 +6543,13 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M30" t="n">
-        <v>905.3665017627701</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N30" t="n">
         <v>1057.709031609044</v>
@@ -6558,34 +6558,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.116286433832</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="U30" t="n">
-        <v>1111.91361897131</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="V30" t="n">
-        <v>876.7615107395675</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="W30" t="n">
-        <v>622.5241540113659</v>
+        <v>1494.151844904622</v>
       </c>
       <c r="X30" t="n">
-        <v>414.6726538058331</v>
+        <v>1286.300344699089</v>
       </c>
       <c r="Y30" t="n">
-        <v>206.9123550408792</v>
+        <v>1078.540045934135</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L31" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M31" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N31" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O31" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P31" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q31" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R31" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S31" t="n">
-        <v>296.5701361642185</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T31" t="n">
-        <v>67.46279708410611</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V31" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W31" t="n">
-        <v>32.45932575975219</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y31" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6674,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>759.6875413069145</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="C32" t="n">
-        <v>390.7250243665027</v>
+        <v>800.5649960805455</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
         <v>32.45932575975219</v>
@@ -6695,19 +6695,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="I32" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975208</v>
       </c>
       <c r="J32" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521497</v>
       </c>
       <c r="K32" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L32" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
@@ -6728,22 +6728,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T32" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U32" t="n">
-        <v>1536.426713346848</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V32" t="n">
-        <v>1536.426713346848</v>
+        <v>1542.993271282037</v>
       </c>
       <c r="W32" t="n">
-        <v>1536.426713346848</v>
+        <v>1542.993271282037</v>
       </c>
       <c r="X32" t="n">
-        <v>1536.426713346848</v>
+        <v>1169.527513020957</v>
       </c>
       <c r="Y32" t="n">
-        <v>1146.287381371036</v>
+        <v>1169.527513020957</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>815.2070562058072</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C33" t="n">
-        <v>815.2070562058072</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D33" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E33" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F33" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313475</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
@@ -6810,19 +6810,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U33" t="n">
-        <v>944.9608164894784</v>
+        <v>1072.277455785845</v>
       </c>
       <c r="V33" t="n">
-        <v>815.2070562058072</v>
+        <v>837.1253475541027</v>
       </c>
       <c r="W33" t="n">
-        <v>815.2070562058072</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="X33" t="n">
-        <v>815.2070562058072</v>
+        <v>582.8879908259012</v>
       </c>
       <c r="Y33" t="n">
-        <v>815.2070562058072</v>
+        <v>375.1276920609473</v>
       </c>
     </row>
     <row r="34">
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>1472.849648575274</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>1324.936554992881</v>
       </c>
       <c r="F34" t="n">
         <v>1294.179012144412</v>
@@ -6886,22 +6886,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>1583.375590384508</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="C35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="D35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="E35" t="n">
-        <v>1291.903400644039</v>
+        <v>1123.182392615933</v>
       </c>
       <c r="F35" t="n">
-        <v>882.063428929996</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G35" t="n">
-        <v>472.2234572159531</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H35" t="n">
-        <v>135.415057503104</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J35" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521485</v>
       </c>
       <c r="K35" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011317</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528325</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q35" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y35" t="n">
-        <v>1291.903400644039</v>
+        <v>1508.970645214178</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>32.45932575975219</v>
+        <v>517.5572279595219</v>
       </c>
       <c r="C36" t="n">
-        <v>32.45932575975219</v>
+        <v>517.5572279595219</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H36" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>256.6067387278475</v>
+        <v>389.6147262310921</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321105</v>
+        <v>789.0328628353551</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894786</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577358</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W36" t="n">
-        <v>455.5713515295342</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240014</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904744</v>
+        <v>557.4112803263704</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>72.05002336285366</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="C37" t="n">
-        <v>32.45932575975219</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>1441.31782315737</v>
       </c>
       <c r="G37" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H37" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I37" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J37" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K37" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L37" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M37" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N37" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O37" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U37" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V37" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W37" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X37" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y37" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="C38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="D38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="E38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="F38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="G38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="H38" t="n">
-        <v>32.45932575975219</v>
+        <v>175.5296551370332</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J38" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K38" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M38" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N38" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O38" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.862809315275</v>
+        <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U38" t="n">
-        <v>1535.43291133088</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V38" t="n">
-        <v>1535.43291133088</v>
+        <v>1291.903400644039</v>
       </c>
       <c r="W38" t="n">
-        <v>1182.664256060766</v>
+        <v>939.1347453739247</v>
       </c>
       <c r="X38" t="n">
-        <v>809.1984977996857</v>
+        <v>565.6689871128449</v>
       </c>
       <c r="Y38" t="n">
-        <v>419.059165823874</v>
+        <v>175.5296551370332</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>737.1093162839455</v>
+        <v>791.8502865798791</v>
       </c>
       <c r="C39" t="n">
-        <v>562.6562870028185</v>
+        <v>617.3972572987522</v>
       </c>
       <c r="D39" t="n">
-        <v>562.6562870028185</v>
+        <v>468.4628476375009</v>
       </c>
       <c r="E39" t="n">
-        <v>507.0351915391004</v>
+        <v>309.2253926320454</v>
       </c>
       <c r="F39" t="n">
-        <v>360.5006335659854</v>
+        <v>162.6908346589304</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H39" t="n">
         <v>111.7947023326189</v>
@@ -7251,52 +7251,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K39" t="n">
-        <v>91.88297124942892</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L39" t="n">
-        <v>389.6147262310921</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M39" t="n">
-        <v>789.0328628353551</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N39" t="n">
-        <v>1190.717019112288</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O39" t="n">
-        <v>1513.730526286846</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P39" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S39" t="n">
-        <v>1374.066492846507</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894784</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="V39" t="n">
-        <v>944.9608164894784</v>
+        <v>1422.063279093103</v>
       </c>
       <c r="W39" t="n">
-        <v>944.9608164894784</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="X39" t="n">
-        <v>737.1093162839455</v>
+        <v>1167.825922364901</v>
       </c>
       <c r="Y39" t="n">
-        <v>737.1093162839455</v>
+        <v>960.0656235999472</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H40" t="n">
-        <v>256.8779464865154</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I40" t="n">
-        <v>107.8860696601711</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="W40" t="n">
-        <v>361.2466016029501</v>
+        <v>1368.281799781722</v>
       </c>
       <c r="X40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="Y40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C41" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D41" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E41" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F41" t="n">
-        <v>968.7637269953007</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G41" t="n">
-        <v>558.9237552812579</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H41" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I41" t="n">
         <v>32.45932575975219</v>
@@ -7433,28 +7433,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="S41" t="n">
-        <v>1358.903058971112</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="T41" t="n">
-        <v>1358.903058971112</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="U41" t="n">
-        <v>1358.903058971112</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="V41" t="n">
-        <v>1358.903058971112</v>
+        <v>1535.43291133088</v>
       </c>
       <c r="W41" t="n">
-        <v>1358.903058971112</v>
+        <v>1182.664256060766</v>
       </c>
       <c r="X41" t="n">
-        <v>1358.903058971112</v>
+        <v>809.1984977996857</v>
       </c>
       <c r="Y41" t="n">
-        <v>968.7637269953007</v>
+        <v>419.059165823874</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>455.571351529534</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C42" t="n">
-        <v>455.571351529534</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D42" t="n">
-        <v>455.571351529534</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E42" t="n">
-        <v>427.6998149662337</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F42" t="n">
-        <v>281.1652569931187</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7491,49 +7491,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>172.6527292199792</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L42" t="n">
-        <v>470.3844842016424</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="M42" t="n">
-        <v>869.8026208059053</v>
+        <v>636.3836421851988</v>
       </c>
       <c r="N42" t="n">
-        <v>1271.486777082839</v>
+        <v>1038.067798462132</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1361.08130563669</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1603.325054840698</v>
       </c>
       <c r="Q42" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1525.803721052667</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1324.90071215816</v>
       </c>
       <c r="U42" t="n">
-        <v>944.9608164894784</v>
+        <v>1096.698044695639</v>
       </c>
       <c r="V42" t="n">
-        <v>709.8087082577356</v>
+        <v>861.5459364638959</v>
       </c>
       <c r="W42" t="n">
-        <v>455.571351529534</v>
+        <v>607.3085797356944</v>
       </c>
       <c r="X42" t="n">
-        <v>455.571351529534</v>
+        <v>399.4570795301616</v>
       </c>
       <c r="Y42" t="n">
-        <v>455.571351529534</v>
+        <v>191.6967807652077</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1369.60575604483</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1558.289822548878</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1518.597632871174</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1518.597632871174</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y43" t="n">
-        <v>1518.597632871174</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>580.3810541751592</v>
+        <v>1118.831313238366</v>
       </c>
       <c r="C44" t="n">
-        <v>580.3810541751592</v>
+        <v>749.8687962979543</v>
       </c>
       <c r="D44" t="n">
-        <v>222.1153555684087</v>
+        <v>391.6030976912038</v>
       </c>
       <c r="E44" t="n">
-        <v>222.1153555684087</v>
+        <v>391.6030976912038</v>
       </c>
       <c r="F44" t="n">
-        <v>222.1153555684087</v>
+        <v>391.6030976912038</v>
       </c>
       <c r="G44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
         <v>247.3580469011316</v>
@@ -7670,28 +7670,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T44" t="n">
-        <v>1594.283535568107</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U44" t="n">
-        <v>1340.446652500361</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V44" t="n">
-        <v>1340.446652500361</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W44" t="n">
-        <v>1340.446652500361</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X44" t="n">
-        <v>966.980894239281</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y44" t="n">
-        <v>966.980894239281</v>
+        <v>1118.831313238366</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>944.9608164894784</v>
+        <v>550.4627890153442</v>
       </c>
       <c r="C45" t="n">
-        <v>770.5077872083514</v>
+        <v>376.0097597342173</v>
       </c>
       <c r="D45" t="n">
-        <v>621.5733775471001</v>
+        <v>376.0097597342173</v>
       </c>
       <c r="E45" t="n">
-        <v>462.3359225416446</v>
+        <v>376.0097597342173</v>
       </c>
       <c r="F45" t="n">
         <v>360.5006335659854</v>
@@ -7728,49 +7728,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K45" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L45" t="n">
-        <v>208.2166101768439</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M45" t="n">
-        <v>607.634746781107</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R45" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="V45" t="n">
-        <v>944.9608164894784</v>
+        <v>1220.311944714033</v>
       </c>
       <c r="W45" t="n">
-        <v>944.9608164894784</v>
+        <v>966.0745879858309</v>
       </c>
       <c r="X45" t="n">
-        <v>944.9608164894784</v>
+        <v>758.2230877802981</v>
       </c>
       <c r="Y45" t="n">
-        <v>944.9608164894784</v>
+        <v>550.4627890153442</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="G46" t="n">
         <v>32.45932575975219</v>
@@ -7843,13 +7843,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>361.2466016029501</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X46" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.1077905899919</v>
+        <v>71.82943156598952</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8070,7 +8070,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5053919605859</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8298,16 +8298,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>303.312501347746</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,10 +8772,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>70.10119885733474</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>404.2448282451928</v>
+        <v>213.8448350321619</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304798</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9015,7 +9015,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>241.3813618149012</v>
+        <v>380.7598033349564</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275543</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>186.173573874842</v>
       </c>
       <c r="M18" t="n">
-        <v>103.5056817990683</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304798</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9486,10 +9486,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>103.505681799068</v>
       </c>
       <c r="N21" t="n">
-        <v>203.2271928126415</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9717,22 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079358</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>447.9178485742653</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>99.73813450275541</v>
@@ -9960,7 +9960,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>362.3381572675154</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9969,7 +9969,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q27" t="n">
         <v>99.73813450275541</v>
@@ -10191,16 +10191,16 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>203.2271928126418</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
         <v>86.93262649026374</v>
@@ -10434,7 +10434,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>251.9990040344214</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>455.0874215304797</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>267.4734388209745</v>
+        <v>253.3316191141511</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10680,10 +10680,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K39" t="n">
-        <v>117.9172225363091</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10917,10 +10917,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>73.77211287831321</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>199.502836647976</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>70.10119885733471</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
-        <v>67.58604940343852</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>119.5777639440803</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,10 +11294,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711644</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11376,25 +11376,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>70.10119885733471</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>393.6271860256719</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444136</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22589,31 +22589,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22623,10 +22623,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>49.84010525324415</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22638,16 +22638,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>10.06774813352342</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22683,13 +22683,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22790,22 +22790,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>184.4282419190523</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22838,7 +22838,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22860,16 +22860,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22914,19 +22914,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>120.4592573625853</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23024,13 +23024,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>206.5399494528818</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>415.302737515135</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,25 +23063,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23103,16 +23103,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>50.49081690349466</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23121,7 +23121,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23163,10 +23163,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>59.75548455249168</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.10642379180146</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,16 +23258,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G11" t="n">
         <v>414.7135041305339</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>56.79311626624411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>319.2639215113297</v>
       </c>
     </row>
     <row r="12">
@@ -23334,28 +23334,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>78.52437462028941</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,25 +23382,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>31.59930865325634</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23431,13 +23431,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H13" t="n">
-        <v>56.55224943852487</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>59.32005692394502</v>
       </c>
       <c r="S13" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23495,16 +23495,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>213.0434155371748</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
         <v>414.7135041305339</v>
@@ -23549,19 +23549,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>184.3244970923447</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,25 +23571,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>4.936914225855531</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23619,25 +23619,25 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>44.22321015090918</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>126.1137933559314</v>
+        <v>116.085430306583</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23695,13 +23695,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23732,16 +23732,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G17" t="n">
         <v>414.7135041305339</v>
@@ -23777,28 +23777,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>56.79311626624441</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>319.2639215113299</v>
       </c>
     </row>
     <row r="18">
@@ -23814,22 +23814,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>89.74982728018151</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23859,19 +23859,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>181.2514596593306</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>38.50629829026015</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>167.7266695472104</v>
@@ -23947,7 +23947,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>145.2228935911568</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23966,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>306.9349787968916</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.134473744809156</v>
+        <v>267.1743955689006</v>
       </c>
       <c r="G20" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
         <v>187.7594695105699</v>
@@ -24026,13 +24026,13 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,13 +24045,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,13 +24060,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>9.693876124923051</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I21" t="n">
-        <v>78.54202280713804</v>
+        <v>59.01939899262027</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24096,10 +24096,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -24108,7 +24108,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>74.67247646141476</v>
@@ -24175,10 +24175,10 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>120.7272614763988</v>
+        <v>208.6960386664213</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24215,16 +24215,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>8.97193213363164</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>290.9990283030146</v>
       </c>
       <c r="I23" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,19 +24254,19 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>149.3723398111501</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24282,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -24333,13 +24333,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>52.3388948030437</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>84.69968995873808</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>41.70072328554119</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>108.3071674310103</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
         <v>74.67247646141476</v>
@@ -24418,7 +24418,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24430,7 +24430,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>33.40472078726454</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>27.15020556127934</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24522,25 +24522,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>137.6439878620818</v>
       </c>
       <c r="G27" t="n">
-        <v>36.1775236660327</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>106.2262573958608</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>219.4103988718534</v>
+        <v>123.3497577082895</v>
       </c>
       <c r="T28" t="n">
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24683,10 +24683,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24695,10 +24695,10 @@
         <v>414.7135041305339</v>
       </c>
       <c r="H29" t="n">
-        <v>54.61374593129921</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,22 +24725,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>90.30326051198233</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>78.54202280713804</v>
@@ -24807,19 +24807,19 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>84.69968995873758</v>
+        <v>71.36768015340425</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R31" t="n">
         <v>165.4090611368575</v>
@@ -24889,19 +24889,19 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>251.6511758465851</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G32" t="n">
         <v>414.7135041305339</v>
@@ -24968,22 +24968,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>134.842301528686</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>248.5789719316184</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24993,28 +24993,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25050,19 +25050,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>126.0434729034033</v>
       </c>
       <c r="V33" t="n">
-        <v>104.3443644685909</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25078,13 +25078,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9710806029469</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25126,10 +25126,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T34" t="n">
-        <v>187.621475062241</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25160,19 +25160,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.134473744809043</v>
+        <v>254.001566777285</v>
       </c>
       <c r="G35" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.8332950846516</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>195.5929138346465</v>
@@ -25211,7 +25211,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25230,28 +25230,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>159.107959118565</v>
+        <v>127.0776718066874</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25287,7 +25287,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25296,7 +25296,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25309,10 +25309,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>128.0520304715574</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>22.05924664438194</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25366,7 +25366,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25409,7 +25409,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>46.11984342706174</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>26.19764345553467</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25448,7 +25448,7 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25467,25 +25467,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>102.58019594632</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>86.64107850537312</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25515,28 +25515,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25564,13 +25564,13 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
-        <v>56.55224943852481</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25606,13 +25606,13 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>152.3478956280993</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>26.19764345553513</v>
       </c>
       <c r="S41" t="n">
-        <v>47.02600345401189</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
         <v>220.5164804230398</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25713,16 +25713,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>130.0522592577337</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25752,10 +25752,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>69.63627142582286</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25770,10 +25770,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25804,10 +25804,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
-        <v>126.1137933559313</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T43" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,10 +25862,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>59.16116991839681</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>192.1205555277323</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25928,10 +25928,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,13 +25947,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>44.25227630748124</v>
+        <v>129.7151774868343</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25989,28 +25989,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26035,7 +26035,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.7266695472104</v>
+        <v>128.7502647990354</v>
       </c>
       <c r="H46" t="n">
         <v>159.8772180037952</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>80.04223248620852</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>423828.8048450415</v>
+        <v>423828.8048450416</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>423828.8048450416</v>
+        <v>423828.8048450415</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>540478.9743366305</v>
+        <v>540478.9743366304</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>540478.9743366304</v>
+        <v>540478.9743366302</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>540478.9743366304</v>
+        <v>540478.9743366305</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>540478.9743366302</v>
+        <v>540478.9743366304</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>540478.9743366303</v>
+        <v>540478.9743366305</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>540478.9743366303</v>
+        <v>540478.9743366301</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>540478.9743366302</v>
+        <v>540478.9743366307</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>540478.9743366303</v>
+        <v>540478.9743366307</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>540478.9743366307</v>
+        <v>540478.9743366303</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>540478.9743366304</v>
+        <v>540478.9743366303</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>540478.9743366304</v>
+        <v>540478.9743366301</v>
       </c>
     </row>
   </sheetData>
@@ -26317,22 +26317,22 @@
         <v>174468.7061578989</v>
       </c>
       <c r="D2" t="n">
-        <v>174468.7061578989</v>
+        <v>174468.706157899</v>
       </c>
       <c r="E2" t="n">
         <v>224310.3419178369</v>
       </c>
       <c r="F2" t="n">
+        <v>224310.3419178369</v>
+      </c>
+      <c r="G2" t="n">
         <v>224310.341917837</v>
       </c>
-      <c r="G2" t="n">
-        <v>224310.3419178368</v>
-      </c>
       <c r="H2" t="n">
+        <v>224310.3419178369</v>
+      </c>
+      <c r="I2" t="n">
         <v>224310.341917837</v>
-      </c>
-      <c r="I2" t="n">
-        <v>224310.3419178369</v>
       </c>
       <c r="J2" t="n">
         <v>224310.341917837</v>
@@ -26347,13 +26347,13 @@
         <v>224310.341917837</v>
       </c>
       <c r="N2" t="n">
+        <v>224310.341917837</v>
+      </c>
+      <c r="O2" t="n">
         <v>224310.3419178369</v>
       </c>
-      <c r="O2" t="n">
-        <v>224310.341917837</v>
-      </c>
       <c r="P2" t="n">
-        <v>224310.341917837</v>
+        <v>224310.3419178369</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.69786244792</v>
+        <v>41050.6978624479</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="F4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="G4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="H4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="I4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="J4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="K4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="L4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="M4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="N4" t="n">
-        <v>20314.86901713245</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="O4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
       <c r="P4" t="n">
-        <v>20314.86901713244</v>
+        <v>17394.13523139261</v>
       </c>
     </row>
     <row r="5">
@@ -26479,10 +26479,10 @@
         <v>27864.35291375757</v>
       </c>
       <c r="F5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="H5" t="n">
         <v>27864.35291375756</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25642.92097715656</v>
+        <v>28503.31622160869</v>
       </c>
       <c r="C6" t="n">
-        <v>106412.3525087042</v>
+        <v>109272.7477531564</v>
       </c>
       <c r="D6" t="n">
-        <v>106412.3525087043</v>
+        <v>109272.7477531565</v>
       </c>
       <c r="E6" t="n">
-        <v>9190.949861700166</v>
+        <v>12111.68364744</v>
       </c>
       <c r="F6" t="n">
-        <v>176131.119986947</v>
+        <v>179051.8537726868</v>
       </c>
       <c r="G6" t="n">
-        <v>176131.1199869468</v>
+        <v>179051.8537726868</v>
       </c>
       <c r="H6" t="n">
-        <v>176131.119986947</v>
+        <v>179051.8537726867</v>
       </c>
       <c r="I6" t="n">
-        <v>176131.1199869469</v>
+        <v>179051.8537726868</v>
       </c>
       <c r="J6" t="n">
-        <v>113071.1773878407</v>
+        <v>115991.9111735805</v>
       </c>
       <c r="K6" t="n">
-        <v>176131.1199869469</v>
+        <v>179051.8537726868</v>
       </c>
       <c r="L6" t="n">
-        <v>176131.119986947</v>
+        <v>179051.8537726869</v>
       </c>
       <c r="M6" t="n">
-        <v>135080.422124499</v>
+        <v>138001.155910239</v>
       </c>
       <c r="N6" t="n">
-        <v>176131.1199869469</v>
+        <v>179051.8537726868</v>
       </c>
       <c r="O6" t="n">
-        <v>176131.1199869469</v>
+        <v>179051.8537726867</v>
       </c>
       <c r="P6" t="n">
-        <v>176131.119986947</v>
+        <v>179051.8537726867</v>
       </c>
     </row>
   </sheetData>
@@ -26811,16 +26811,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="J4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="L4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="M4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
         <v>405.7415719969023</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32145,19 +32145,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32169,7 +32169,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32178,16 +32178,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5892333846011534</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H17" t="n">
-        <v>6.034486400046564</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I17" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J17" t="n">
-        <v>50.01044697629219</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K17" t="n">
-        <v>74.95269614645902</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L17" t="n">
-        <v>92.9854473404466</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M17" t="n">
-        <v>103.4642265438473</v>
+        <v>103.4642265438474</v>
       </c>
       <c r="N17" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O17" t="n">
-        <v>99.27919642971766</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P17" t="n">
-        <v>84.73249724737667</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.63057666134785</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R17" t="n">
-        <v>37.01343159545223</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S17" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57936914109155</v>
+        <v>2.579369141091551</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04713867076809226</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3152676547891928</v>
+        <v>0.3152676547891929</v>
       </c>
       <c r="H18" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85461004427703</v>
+        <v>10.85461004427704</v>
       </c>
       <c r="J18" t="n">
-        <v>29.78587961321931</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K18" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L18" t="n">
-        <v>68.45318092253945</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M18" t="n">
-        <v>79.88163340864766</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N18" t="n">
-        <v>81.99586254975591</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O18" t="n">
-        <v>75.01019504100589</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P18" t="n">
-        <v>60.20229453601701</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.24363958326609</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R18" t="n">
-        <v>19.57424965436761</v>
+        <v>19.57424965436762</v>
       </c>
       <c r="S18" t="n">
-        <v>5.855958412422065</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T18" t="n">
         <v>1.270749889259948</v>
@@ -32382,19 +32382,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2643098112483454</v>
+        <v>0.2643098112483455</v>
       </c>
       <c r="H19" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I19" t="n">
-        <v>7.948516869177517</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J19" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K19" t="n">
-        <v>30.70799443412594</v>
+        <v>30.70799443412595</v>
       </c>
       <c r="L19" t="n">
         <v>39.29566048323129</v>
@@ -32406,7 +32406,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O19" t="n">
-        <v>37.35899041172069</v>
+        <v>37.3589904117207</v>
       </c>
       <c r="P19" t="n">
         <v>31.96707026225442</v>
@@ -32415,16 +32415,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R19" t="n">
-        <v>11.88433024031196</v>
+        <v>11.88433024031197</v>
       </c>
       <c r="S19" t="n">
-        <v>4.60619916511889</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T19" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U19" t="n">
-        <v>0.01441689879536431</v>
+        <v>0.01441689879536432</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34790,7 +34790,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9091475161414</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35018,16 +35018,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35492,10 +35492,10 @@
         <v>177.5326105223148</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>341.9924277318221</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35507,7 +35507,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35644,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35665,7 +35665,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,10 +35732,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>192.0355122813238</v>
+        <v>331.413953801379</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35744,7 +35744,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,22 +35805,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>38.06115762167967</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K17" t="n">
-        <v>179.0082576726432</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L17" t="n">
         <v>274.8802469209098</v>
@@ -35902,7 +35902,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q17" t="n">
-        <v>53.63987744680304</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223148</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>300.7391464461244</v>
+        <v>116.0723750175073</v>
       </c>
       <c r="M18" t="n">
-        <v>41.25328128569767</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -36042,22 +36042,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.438502608243091</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L19" t="n">
-        <v>66.88568574354743</v>
+        <v>66.88568574354744</v>
       </c>
       <c r="M19" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N19" t="n">
-        <v>84.57878194962315</v>
+        <v>84.57878194962316</v>
       </c>
       <c r="O19" t="n">
-        <v>61.94411832576036</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P19" t="n">
-        <v>29.2456295271479</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36206,10 +36206,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>403.4526632366293</v>
+        <v>41.25328128569732</v>
       </c>
       <c r="N21" t="n">
-        <v>153.8813432790641</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
@@ -36218,7 +36218,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506011</v>
       </c>
       <c r="M24" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>398.571999040688</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>300.0857567541447</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O27" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M30" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>153.8813432790645</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37154,7 +37154,7 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>189.7466035210508</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969023</v>
@@ -37163,10 +37163,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
-        <v>197.3722399636398</v>
+        <v>183.2304202568164</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O36" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K38" t="n">
         <v>179.0082576726433</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>30.98459604604533</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37637,10 +37637,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q39" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
-        <v>112.5702101577122</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
@@ -37871,13 +37871,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>19.8396294413249</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,10 +38014,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726429</v>
       </c>
       <c r="L44" t="n">
         <v>274.8802469209098</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N45" t="n">
-        <v>344.2813364920946</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O45" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>170.3630375661004</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
